--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="9510" windowHeight="5055"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9510" windowHeight="5055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TC02" sheetId="2" r:id="rId2"/>
+    <sheet name="TC03" sheetId="3" r:id="rId3"/>
+    <sheet name="TC04" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -37,19 +38,98 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>1222222</t>
+  </si>
+  <si>
+    <t>naaz</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>yesride</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Invalid Login Details</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>AlternateMobile</t>
+  </si>
+  <si>
+    <t>PickupLoc</t>
+  </si>
+  <si>
+    <t>DropLoc</t>
+  </si>
+  <si>
+    <t>Hebbal, Bengaluru, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Kempegowda International Airport Road, Gangamuthanahalli, Karnataka, India</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>jahan@mailinator.com</t>
+  </si>
+  <si>
+    <t>Jahani</t>
+  </si>
+  <si>
+    <t>1471474900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,17 +149,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,9 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -421,21 +506,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Username</t>
   </si>
@@ -103,13 +103,28 @@
     <t>MA</t>
   </si>
   <si>
-    <t>jahan@mailinator.com</t>
-  </si>
-  <si>
     <t>Jahani</t>
   </si>
   <si>
-    <t>1471474900</t>
+    <t>Nazneen</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>jahan777@mailinator.com</t>
+  </si>
+  <si>
+    <t>1471474984</t>
+  </si>
+  <si>
+    <t>1.New Number</t>
+  </si>
+  <si>
+    <t>2.Old Existing numb</t>
+  </si>
+  <si>
+    <t>3.Coupon applied  users</t>
   </si>
 </sst>
 </file>
@@ -161,9 +176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,7 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -487,10 +504,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -534,7 +551,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -553,12 +570,12 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -566,10 +583,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -582,16 +599,16 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -602,10 +619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,23 +660,38 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
+      <c r="A2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Username</t>
   </si>
@@ -100,12 +100,6 @@
     <t>Kempegowda International Airport Road, Gangamuthanahalli, Karnataka, India</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Jahani</t>
-  </si>
-  <si>
     <t>Nazneen</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>jahan777@mailinator.com</t>
   </si>
   <si>
-    <t>1471474984</t>
-  </si>
-  <si>
     <t>1.New Number</t>
   </si>
   <si>
@@ -125,6 +116,24 @@
   </si>
   <si>
     <t>3.Coupon applied  users</t>
+  </si>
+  <si>
+    <t>AttachmentID</t>
+  </si>
+  <si>
+    <t>DriverDBLRID</t>
+  </si>
+  <si>
+    <t>ABLR20007</t>
+  </si>
+  <si>
+    <t>Jahan</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1471471647</t>
   </si>
 </sst>
 </file>
@@ -504,10 +513,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -622,7 +631,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,16 +670,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -681,17 +690,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -704,14 +713,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>